--- a/data/diff_sequencing_ratio.xlsx
+++ b/data/diff_sequencing_ratio.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7460" yWindow="1240" windowWidth="25800" windowHeight="16880" tabRatio="500"/>
+    <workbookView xWindow="14260" yWindow="1640" windowWidth="25800" windowHeight="16880" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -578,8 +578,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="177" formatCode="0.0000%"/>
-    <numFmt numFmtId="178" formatCode="0.00000%"/>
+    <numFmt numFmtId="176" formatCode="0.0000%"/>
+    <numFmt numFmtId="177" formatCode="0.00000%"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -692,7 +692,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -703,7 +703,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -719,7 +719,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -757,6 +757,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1039,7 +1042,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H169"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A149" workbookViewId="0">
       <selection activeCell="H128" sqref="H128"/>
     </sheetView>
   </sheetViews>
@@ -5455,7 +5458,7 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -6141,14 +6144,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16.33203125" customWidth="1"/>
     <col min="2" max="2" width="22.5" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="5" max="5" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
@@ -6181,8 +6186,8 @@
       <c r="D2" t="s">
         <v>136</v>
       </c>
-      <c r="E2">
-        <v>0.79633867276887871</v>
+      <c r="E2" s="24">
+        <v>0.20366132723112129</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -6198,8 +6203,8 @@
       <c r="D3" t="s">
         <v>136</v>
       </c>
-      <c r="E3">
-        <v>0.59698996655518399</v>
+      <c r="E3" s="24">
+        <v>0.40301003344481601</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
@@ -6215,8 +6220,8 @@
       <c r="D4" t="s">
         <v>136</v>
       </c>
-      <c r="E4">
-        <v>0.44565217391304346</v>
+      <c r="E4" s="24">
+        <v>0.55434782608695654</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
@@ -6232,8 +6237,8 @@
       <c r="D5" t="s">
         <v>136</v>
       </c>
-      <c r="E5">
-        <v>0.6391184573002755</v>
+      <c r="E5" s="24">
+        <v>0.3608815426997245</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
@@ -6249,8 +6254,8 @@
       <c r="D6" t="s">
         <v>136</v>
       </c>
-      <c r="E6">
-        <v>5.7364118743725802E-2</v>
+      <c r="E6" s="24">
+        <v>0.94263588125627418</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
@@ -6266,8 +6271,8 @@
       <c r="D7" t="s">
         <v>136</v>
       </c>
-      <c r="E7">
-        <v>0.42857142857142855</v>
+      <c r="E7" s="24">
+        <v>0.5714285714285714</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
@@ -6283,8 +6288,8 @@
       <c r="D8" t="s">
         <v>136</v>
       </c>
-      <c r="E8">
-        <v>0.15887850467289719</v>
+      <c r="E8" s="24">
+        <v>0.74345549738219896</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
@@ -6300,8 +6305,8 @@
       <c r="D9" t="s">
         <v>136</v>
       </c>
-      <c r="E9">
-        <v>0.25654450261780104</v>
+      <c r="E9" s="24">
+        <v>0.81395348837209303</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
@@ -6317,8 +6322,8 @@
       <c r="D10" t="s">
         <v>136</v>
       </c>
-      <c r="E10">
-        <v>0.18604651162790697</v>
+      <c r="E10" s="24">
+        <v>0.84112149532710279</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
@@ -6334,8 +6339,8 @@
       <c r="D11" t="s">
         <v>136</v>
       </c>
-      <c r="E11">
-        <v>0.51948051948051943</v>
+      <c r="E11" s="24">
+        <v>0.48051948051948057</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
@@ -6351,8 +6356,8 @@
       <c r="D12" t="s">
         <v>136</v>
       </c>
-      <c r="E12">
-        <v>0.47368421052631576</v>
+      <c r="E12" s="24">
+        <v>0.52631578947368429</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">

--- a/data/diff_sequencing_ratio.xlsx
+++ b/data/diff_sequencing_ratio.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="14260" yWindow="1640" windowWidth="25800" windowHeight="16880" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="12600" yWindow="1640" windowWidth="25800" windowHeight="16880" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="151">
   <si>
     <t>BJ02</t>
   </si>
@@ -385,10 +385,6 @@
   </si>
   <si>
     <t>BJ32</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>BJ33</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -1040,10 +1036,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H169"/>
+  <dimension ref="A1:H168"/>
   <sheetViews>
-    <sheetView topLeftCell="A149" workbookViewId="0">
-      <selection activeCell="H128" sqref="H128"/>
+    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
+      <selection activeCell="H126" sqref="H126:H168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -1064,7 +1060,7 @@
         <v>69</v>
       </c>
       <c r="D1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E1" t="s">
         <v>70</v>
@@ -1102,7 +1098,7 @@
         <v>5.7786892877079003E-4</v>
       </c>
       <c r="H2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
@@ -1128,7 +1124,7 @@
         <v>1.7031537006940369E-3</v>
       </c>
       <c r="H3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
@@ -1154,7 +1150,7 @@
         <v>8.3951731447139437E-4</v>
       </c>
       <c r="H4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
@@ -1180,7 +1176,7 @@
         <v>7.2373790324806511E-4</v>
       </c>
       <c r="H5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
@@ -1206,7 +1202,7 @@
         <v>3.7059029007290561E-3</v>
       </c>
       <c r="H6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
@@ -1232,7 +1228,7 @@
         <v>1.4383166527910933E-3</v>
       </c>
       <c r="H7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
@@ -1258,7 +1254,7 @@
         <v>1.5550782768883856E-3</v>
       </c>
       <c r="H8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
@@ -1284,7 +1280,7 @@
         <v>1.1758677154013188E-3</v>
       </c>
       <c r="H9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
@@ -1310,7 +1306,7 @@
         <v>3.7948223843487562E-3</v>
       </c>
       <c r="H10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
@@ -1336,7 +1332,7 @@
         <v>5.8254840272891587E-4</v>
       </c>
       <c r="H11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
@@ -1362,7 +1358,7 @@
         <v>1.68963156743614E-3</v>
       </c>
       <c r="H12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
@@ -1388,7 +1384,7 @@
         <v>7.5090916164640006E-4</v>
       </c>
       <c r="H13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
@@ -1414,7 +1410,7 @@
         <v>2.0733530619233775E-3</v>
       </c>
       <c r="H14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
@@ -1440,7 +1436,7 @@
         <v>6.4924960385942684E-4</v>
       </c>
       <c r="H15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
@@ -1466,7 +1462,7 @@
         <v>2.4751221970453091E-3</v>
       </c>
       <c r="H16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
@@ -1492,7 +1488,7 @@
         <v>3.9301029828511204E-3</v>
       </c>
       <c r="H17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
@@ -1518,7 +1514,7 @@
         <v>8.8091602657082316E-4</v>
       </c>
       <c r="H18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
@@ -1544,7 +1540,7 @@
         <v>1.0237326839163856E-3</v>
       </c>
       <c r="H19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
@@ -1570,7 +1566,7 @@
         <v>8.6297981150943446E-4</v>
       </c>
       <c r="H20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
@@ -1596,7 +1592,7 @@
         <v>3.5073885738105923E-2</v>
       </c>
       <c r="H21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
@@ -1622,7 +1618,7 @@
         <v>4.0792901259273091E-4</v>
       </c>
       <c r="H22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
@@ -1648,7 +1644,7 @@
         <v>3.0636083171326715E-3</v>
       </c>
       <c r="H23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
@@ -1674,7 +1670,7 @@
         <v>5.0941594903215369E-3</v>
       </c>
       <c r="H24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
@@ -1700,7 +1696,7 @@
         <v>3.1915941778203035E-3</v>
       </c>
       <c r="H25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
@@ -1726,7 +1722,7 @@
         <v>4.6240150996626189E-3</v>
       </c>
       <c r="H26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
@@ -1752,7 +1748,7 @@
         <v>3.5721770558012592E-3</v>
       </c>
       <c r="H27" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
@@ -1778,7 +1774,7 @@
         <v>8.6442607244803017E-4</v>
       </c>
       <c r="H28" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
@@ -1804,7 +1800,7 @@
         <v>7.3688466613150436E-3</v>
       </c>
       <c r="H29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
@@ -1830,7 +1826,7 @@
         <v>8.7879618134991122E-3</v>
       </c>
       <c r="H30" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
@@ -1856,7 +1852,7 @@
         <v>4.7368800042473583E-3</v>
       </c>
       <c r="H31" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
@@ -1882,7 +1878,7 @@
         <v>7.1702943665036907E-4</v>
       </c>
       <c r="H32" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
@@ -1908,7 +1904,7 @@
         <v>7.0913371786658717E-4</v>
       </c>
       <c r="H33" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
@@ -1934,7 +1930,7 @@
         <v>2.4965664266253349E-3</v>
       </c>
       <c r="H34" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.15">
@@ -1960,7 +1956,7 @@
         <v>7.9078449697206384E-5</v>
       </c>
       <c r="H35" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.15">
@@ -1986,7 +1982,7 @@
         <v>5.1294026905295931E-5</v>
       </c>
       <c r="H36" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
@@ -2012,7 +2008,7 @@
         <v>5.9082160546970318E-4</v>
       </c>
       <c r="H37" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.15">
@@ -2038,7 +2034,7 @@
         <v>9.5808399262487236E-5</v>
       </c>
       <c r="H38" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.15">
@@ -2064,7 +2060,7 @@
         <v>8.7046092972585857E-4</v>
       </c>
       <c r="H39" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.15">
@@ -2090,7 +2086,7 @@
         <v>4.2566285199255538E-4</v>
       </c>
       <c r="H40" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.15">
@@ -2116,7 +2112,7 @@
         <v>6.2360318259936393E-4</v>
       </c>
       <c r="H41" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.15">
@@ -2142,7 +2138,7 @@
         <v>9.9482227641856327E-5</v>
       </c>
       <c r="H42" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.15">
@@ -2168,7 +2164,7 @@
         <v>1.5795175623404642E-4</v>
       </c>
       <c r="H43" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.15">
@@ -2194,7 +2190,7 @@
         <v>6.2517520955597886E-4</v>
       </c>
       <c r="H44" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.15">
@@ -2220,7 +2216,7 @@
         <v>1.6344613602484025E-3</v>
       </c>
       <c r="H45" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.15">
@@ -2246,7 +2242,7 @@
         <v>1.5733412083654423E-3</v>
       </c>
       <c r="H46" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.15">
@@ -2272,7 +2268,7 @@
         <v>3.8986884587429087E-3</v>
       </c>
       <c r="H47" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.15">
@@ -2298,7 +2294,7 @@
         <v>2.7741169723472826E-3</v>
       </c>
       <c r="H48" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.15">
@@ -2324,7 +2320,7 @@
         <v>2.9237476296327955E-3</v>
       </c>
       <c r="H49" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.15">
@@ -2350,7 +2346,7 @@
         <v>4.2190886479702105E-5</v>
       </c>
       <c r="H50" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.15">
@@ -2376,7 +2372,7 @@
         <v>7.0908870285907351E-5</v>
       </c>
       <c r="H51" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.15">
@@ -2402,7 +2398,7 @@
         <v>1.3560001631138496E-4</v>
       </c>
       <c r="H52" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.15">
@@ -2428,7 +2424,7 @@
         <v>2.3471887769584343E-5</v>
       </c>
       <c r="H53" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.15">
@@ -2454,7 +2450,7 @@
         <v>1.3054452809964381E-4</v>
       </c>
       <c r="H54" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.15">
@@ -2480,7 +2476,7 @@
         <v>8.5165372060051674E-5</v>
       </c>
       <c r="H55" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.15">
@@ -2506,7 +2502,7 @@
         <v>1.8464576765931461E-4</v>
       </c>
       <c r="H56" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.15">
@@ -2532,7 +2528,7 @@
         <v>1.1031368306666372E-4</v>
       </c>
       <c r="H57" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.15">
@@ -2558,7 +2554,7 @@
         <v>7.7183659458946702E-5</v>
       </c>
       <c r="H58" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.15">
@@ -2584,7 +2580,7 @@
         <v>3.1445083839292748E-5</v>
       </c>
       <c r="H59" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.15">
@@ -2610,7 +2606,7 @@
         <v>4.5741079053803977E-5</v>
       </c>
       <c r="H60" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.15">
@@ -2636,7 +2632,7 @@
         <v>2.475868390142894E-5</v>
       </c>
       <c r="H61" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.15">
@@ -2662,7 +2658,7 @@
         <v>1.837327653777399E-4</v>
       </c>
       <c r="H62" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.15">
@@ -2688,7 +2684,7 @@
         <v>3.4559150970106878E-5</v>
       </c>
       <c r="H63" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.15">
@@ -2714,7 +2710,7 @@
         <v>1.2041217043986105E-4</v>
       </c>
       <c r="H64" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.15">
@@ -2740,7 +2736,7 @@
         <v>4.39481284824858E-5</v>
       </c>
       <c r="H65" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.15">
@@ -2766,7 +2762,7 @@
         <v>7.2638709012103766E-5</v>
       </c>
       <c r="H66" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.15">
@@ -2792,7 +2788,7 @@
         <v>8.6958810710729292E-5</v>
       </c>
       <c r="H67" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.15">
@@ -2818,7 +2814,7 @@
         <v>4.6575873529906865E-3</v>
       </c>
       <c r="H68" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.15">
@@ -2844,7 +2840,7 @@
         <v>3.4438076403284237E-5</v>
       </c>
       <c r="H69" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.15">
@@ -2870,7 +2866,7 @@
         <v>1.6467159203116769E-3</v>
       </c>
       <c r="H70" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.15">
@@ -2896,7 +2892,7 @@
         <v>1.1245445806885791E-4</v>
       </c>
       <c r="H71" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.15">
@@ -2922,7 +2918,7 @@
         <v>4.2702828562748481E-3</v>
       </c>
       <c r="H72" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.15">
@@ -2948,7 +2944,7 @@
         <v>4.8330522119301471E-4</v>
       </c>
       <c r="H73" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.15">
@@ -2974,7 +2970,7 @@
         <v>6.1586591282667411E-4</v>
       </c>
       <c r="H74" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.15">
@@ -3000,7 +2996,7 @@
         <v>1.6308785408970845E-4</v>
       </c>
       <c r="H75" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.15">
@@ -3026,7 +3022,7 @@
         <v>1.925158553152538E-4</v>
       </c>
       <c r="H76" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.15">
@@ -3052,7 +3048,7 @@
         <v>2.2248623133006278E-3</v>
       </c>
       <c r="H77" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.15">
@@ -3078,7 +3074,7 @@
         <v>2.3104598924206665E-5</v>
       </c>
       <c r="H78" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.15">
@@ -3104,7 +3100,7 @@
         <v>2.763362738278634E-4</v>
       </c>
       <c r="H79" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.15">
@@ -3130,7 +3126,7 @@
         <v>2.3713640340558751E-4</v>
       </c>
       <c r="H80" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.15">
@@ -3156,7 +3152,7 @@
         <v>3.1124066704873586E-4</v>
       </c>
       <c r="H81" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.15">
@@ -3182,7 +3178,7 @@
         <v>4.7685983473711481E-5</v>
       </c>
       <c r="H82" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.15">
@@ -3208,7 +3204,7 @@
         <v>3.3150491662622492E-3</v>
       </c>
       <c r="H83" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.15">
@@ -3234,7 +3230,7 @@
         <v>2.4539854174590673E-4</v>
       </c>
       <c r="H84" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.15">
@@ -3260,7 +3256,7 @@
         <v>2.4401281178966641E-4</v>
       </c>
       <c r="H85" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.15">
@@ -3286,7 +3282,7 @@
         <v>7.4343089865233256E-4</v>
       </c>
       <c r="H86" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.15">
@@ -3312,7 +3308,7 @@
         <v>1.377566869777972E-5</v>
       </c>
       <c r="H87" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.15">
@@ -3338,7 +3334,7 @@
         <v>2.2789588339467359E-4</v>
       </c>
       <c r="H88" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.15">
@@ -3364,7 +3360,7 @@
         <v>1.9188030825552963E-5</v>
       </c>
       <c r="H89" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.15">
@@ -3390,7 +3386,7 @@
         <v>2.2536134629172228E-4</v>
       </c>
       <c r="H90" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.15">
@@ -3416,7 +3412,7 @@
         <v>8.0222815165932197E-5</v>
       </c>
       <c r="H91" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.15">
@@ -3442,7 +3438,7 @@
         <v>2.7991418555715951E-4</v>
       </c>
       <c r="H92" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.15">
@@ -3468,7 +3464,7 @@
         <v>4.2134259116565986E-5</v>
       </c>
       <c r="H93" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.15">
@@ -3494,7 +3490,7 @@
         <v>2.9202978020475125E-4</v>
       </c>
       <c r="H94" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.15">
@@ -3520,7 +3516,7 @@
         <v>6.0922323130413594E-6</v>
       </c>
       <c r="H95" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.15">
@@ -3546,7 +3542,7 @@
         <v>7.0898262927357103E-5</v>
       </c>
       <c r="H96" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.15">
@@ -3572,7 +3568,7 @@
         <v>6.1237880880435214E-5</v>
       </c>
       <c r="H97" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.15">
@@ -3598,7 +3594,7 @@
         <v>6.808552146700892E-5</v>
       </c>
       <c r="H98" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.15">
@@ -3624,7 +3620,7 @@
         <v>4.3848876198703565E-4</v>
       </c>
       <c r="H99" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.15">
@@ -3650,7 +3646,7 @@
         <v>3.9666371793428898E-5</v>
       </c>
       <c r="H100" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.15">
@@ -3676,7 +3672,7 @@
         <v>5.9645675956933981E-4</v>
       </c>
       <c r="H101" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.15">
@@ -3702,7 +3698,7 @@
         <v>2.1487670566062942E-4</v>
       </c>
       <c r="H102" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.15">
@@ -3728,7 +3724,7 @@
         <v>4.9416800388564681E-4</v>
       </c>
       <c r="H103" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.15">
@@ -3754,7 +3750,7 @@
         <v>8.1777884222327546E-5</v>
       </c>
       <c r="H104" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.15">
@@ -3780,7 +3776,7 @@
         <v>1.0445771777948641E-4</v>
       </c>
       <c r="H105" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.15">
@@ -3806,7 +3802,7 @@
         <v>2.3345156694896035E-4</v>
       </c>
       <c r="H106" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.15">
@@ -3832,7 +3828,7 @@
         <v>8.6172911085108275E-4</v>
       </c>
       <c r="H107" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.15">
@@ -3858,7 +3854,7 @@
         <v>8.9539980976042956E-4</v>
       </c>
       <c r="H108" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.15">
@@ -3884,7 +3880,7 @@
         <v>8.7488230837092808E-4</v>
       </c>
       <c r="H109" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.15">
@@ -3910,7 +3906,7 @@
         <v>1.4456051194649292E-3</v>
       </c>
       <c r="H110" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.15">
@@ -3936,7 +3932,7 @@
         <v>1.0418739515144037E-3</v>
       </c>
       <c r="H111" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.15">
@@ -3962,7 +3958,7 @@
         <v>1.8028290754908476E-5</v>
       </c>
       <c r="H112" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.15">
@@ -3988,7 +3984,7 @@
         <v>5.3392660203752154E-5</v>
       </c>
       <c r="H113" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.15">
@@ -4014,7 +4010,7 @@
         <v>4.4422347903709286E-4</v>
       </c>
       <c r="H114" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.15">
@@ -4040,7 +4036,7 @@
         <v>1.921635967825597E-5</v>
       </c>
       <c r="H115" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.15">
@@ -4066,7 +4062,7 @@
         <v>4.8147058005799354E-5</v>
       </c>
       <c r="H116" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.15">
@@ -4092,7 +4088,7 @@
         <v>6.5726056968333981E-5</v>
       </c>
       <c r="H117" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.15">
@@ -4118,7 +4114,7 @@
         <v>6.7640785440971821E-5</v>
       </c>
       <c r="H118" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.15">
@@ -4144,7 +4140,7 @@
         <v>3.0456367920874706E-5</v>
       </c>
       <c r="H119" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.15">
@@ -4170,7 +4166,7 @@
         <v>4.1852345588607378E-5</v>
       </c>
       <c r="H120" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.15">
@@ -4196,7 +4192,7 @@
         <v>2.6994746971519049E-5</v>
       </c>
       <c r="H121" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.15">
@@ -4222,7 +4218,7 @@
         <v>2.7001276909223136E-5</v>
       </c>
       <c r="H122" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.15">
@@ -4248,7 +4244,7 @@
         <v>3.4859940152235732E-5</v>
       </c>
       <c r="H123" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.15">
@@ -4274,7 +4270,7 @@
         <v>8.5827510625954094E-5</v>
       </c>
       <c r="H124" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.15">
@@ -4300,7 +4296,7 @@
         <v>3.5974723279289595E-5</v>
       </c>
       <c r="H125" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.15">
@@ -4326,7 +4322,7 @@
         <v>2.5828035694410801E-3</v>
       </c>
       <c r="H126" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.15">
@@ -4352,7 +4348,7 @@
         <v>1.5101191671076885E-3</v>
       </c>
       <c r="H127" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.15">
@@ -4378,7 +4374,7 @@
         <v>3.6923172594455304E-4</v>
       </c>
       <c r="H128" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.15">
@@ -4404,7 +4400,7 @@
         <v>2.1427740359132807E-3</v>
       </c>
       <c r="H129" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.15">
@@ -4430,7 +4426,7 @@
         <v>9.2558615892697732E-4</v>
       </c>
       <c r="H130" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.15">
@@ -4456,7 +4452,7 @@
         <v>1.6245998228377569E-3</v>
       </c>
       <c r="H131" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.15">
@@ -4482,7 +4478,7 @@
         <v>1.1490223572485784E-3</v>
       </c>
       <c r="H132" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.15">
@@ -4508,7 +4504,7 @@
         <v>1.6784374259000098E-3</v>
       </c>
       <c r="H133" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.15">
@@ -4534,7 +4530,7 @@
         <v>8.1920520819205207E-4</v>
       </c>
       <c r="H134" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.15">
@@ -4560,7 +4556,7 @@
         <v>8.657707485438432E-4</v>
       </c>
       <c r="H135" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.15">
@@ -4586,7 +4582,7 @@
         <v>4.1685858106806003E-4</v>
       </c>
       <c r="H136" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.15">
@@ -4612,7 +4608,7 @@
         <v>1.3963190184049081E-3</v>
       </c>
       <c r="H137" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.15">
@@ -4638,7 +4634,7 @@
         <v>4.3088143180303933E-4</v>
       </c>
       <c r="H138" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.15">
@@ -4664,7 +4660,7 @@
         <v>1.3443211638506515E-3</v>
       </c>
       <c r="H139" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.15">
@@ -4690,7 +4686,7 @@
         <v>1.565488288843026E-3</v>
       </c>
       <c r="H140" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.15">
@@ -4716,7 +4712,7 @@
         <v>1.5655529304044278E-3</v>
       </c>
       <c r="H141" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.15">
@@ -4742,7 +4738,7 @@
         <v>1.6542021876597122E-3</v>
       </c>
       <c r="H142" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.15">
@@ -4768,7 +4764,7 @@
         <v>2.2908973577600114E-3</v>
       </c>
       <c r="H143" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.15">
@@ -4794,7 +4790,7 @@
         <v>3.1529772883318301E-3</v>
       </c>
       <c r="H144" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.15">
@@ -4820,7 +4816,7 @@
         <v>1.0733139114625545E-3</v>
       </c>
       <c r="H145" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.15">
@@ -4846,7 +4842,7 @@
         <v>4.036061669785207E-3</v>
       </c>
       <c r="H146" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.15">
@@ -4872,7 +4868,7 @@
         <v>2.3002105464286107E-3</v>
       </c>
       <c r="H147" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.15">
@@ -4898,7 +4894,7 @@
         <v>1.4360280712269924E-3</v>
       </c>
       <c r="H148" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.15">
@@ -4924,7 +4920,7 @@
         <v>1.1314367036298787E-3</v>
       </c>
       <c r="H149" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.15">
@@ -4950,7 +4946,7 @@
         <v>7.5422626788036414E-4</v>
       </c>
       <c r="H150" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.15">
@@ -4961,48 +4957,48 @@
         <v>94</v>
       </c>
       <c r="C151" s="4">
-        <v>0.12627260076798377</v>
+        <v>4.6674663592362159E-5</v>
       </c>
       <c r="D151" s="4">
-        <v>0.2037547998986223</v>
+        <v>9.8016793543960528E-5</v>
       </c>
       <c r="E151" s="4">
-        <v>6.7339648716759362E-2</v>
+        <v>4.3594135795266255E-2</v>
       </c>
       <c r="F151" s="10">
-        <v>2.3049077319612279E-3</v>
+        <v>9.3349327184724314E-6</v>
       </c>
       <c r="G151" s="4">
-        <v>5.786179161147481E-4</v>
+        <v>9.3349327184724315E-4</v>
       </c>
       <c r="H151" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A152" s="14" t="s">
+      <c r="A152" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="B152" s="14" t="s">
-        <v>94</v>
+      <c r="B152" s="12" t="s">
+        <v>58</v>
       </c>
       <c r="C152" s="4">
-        <v>4.6674663592362159E-5</v>
+        <v>9.6359982134881644E-3</v>
       </c>
       <c r="D152" s="4">
-        <v>9.8016793543960528E-5</v>
+        <v>1.9495310406431442E-2</v>
       </c>
       <c r="E152" s="4">
-        <v>4.3594135795266255E-2</v>
+        <v>7.2571460473425636E-2</v>
       </c>
       <c r="F152" s="10">
-        <v>9.3349327184724314E-6</v>
+        <v>4.4104510942384991E-4</v>
       </c>
       <c r="G152" s="4">
-        <v>9.3349327184724315E-4</v>
+        <v>3.4055381866904868E-4</v>
       </c>
       <c r="H152" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.15">
@@ -5013,22 +5009,22 @@
         <v>58</v>
       </c>
       <c r="C153" s="4">
-        <v>9.6359982134881644E-3</v>
+        <v>2.1271773747847974E-3</v>
       </c>
       <c r="D153" s="4">
-        <v>1.9495310406431442E-2</v>
+        <v>3.9362721514709332E-3</v>
       </c>
       <c r="E153" s="4">
-        <v>7.2571460473425636E-2</v>
+        <v>6.7397726504630093E-2</v>
       </c>
       <c r="F153" s="10">
-        <v>4.4104510942384991E-4</v>
+        <v>6.9580568334082151E-4</v>
       </c>
       <c r="G153" s="4">
-        <v>3.4055381866904868E-4</v>
+        <v>5.2881231933902433E-4</v>
       </c>
       <c r="H153" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.15">
@@ -5039,22 +5035,22 @@
         <v>58</v>
       </c>
       <c r="C154" s="4">
-        <v>2.1271773747847974E-3</v>
+        <v>6.5522778165794235E-4</v>
       </c>
       <c r="D154" s="4">
-        <v>3.9362721514709332E-3</v>
+        <v>1.1232476256993295E-3</v>
       </c>
       <c r="E154" s="4">
-        <v>6.7397726504630093E-2</v>
+        <v>7.0260579048551652E-2</v>
       </c>
       <c r="F154" s="10">
-        <v>6.9580568334082151E-4</v>
+        <v>2.7001144848541576E-4</v>
       </c>
       <c r="G154" s="4">
-        <v>5.2881231933902433E-4</v>
+        <v>5.1842198109199825E-4</v>
       </c>
       <c r="H154" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.15">
@@ -5065,22 +5061,22 @@
         <v>58</v>
       </c>
       <c r="C155" s="4">
-        <v>6.5522778165794235E-4</v>
+        <v>3.2372696225491894E-3</v>
       </c>
       <c r="D155" s="4">
-        <v>1.1232476256993295E-3</v>
+        <v>6.6376383253184141E-3</v>
       </c>
       <c r="E155" s="4">
-        <v>7.0260579048551652E-2</v>
+        <v>7.5697742807577684E-2</v>
       </c>
       <c r="F155" s="10">
-        <v>2.7001144848541576E-4</v>
+        <v>1.2553686780572429E-3</v>
       </c>
       <c r="G155" s="4">
-        <v>5.1842198109199825E-4</v>
+        <v>3.9044931325402435E-4</v>
       </c>
       <c r="H155" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.15">
@@ -5091,48 +5087,48 @@
         <v>58</v>
       </c>
       <c r="C156" s="4">
-        <v>3.2372696225491894E-3</v>
+        <v>9.8668583192233197E-4</v>
       </c>
       <c r="D156" s="4">
-        <v>6.6376383253184141E-3</v>
+        <v>1.8941931711595385E-3</v>
       </c>
       <c r="E156" s="4">
-        <v>7.5697742807577684E-2</v>
+        <v>6.5888687220591283E-2</v>
       </c>
       <c r="F156" s="10">
-        <v>1.2553686780572429E-3</v>
+        <v>2.9235135760661689E-4</v>
       </c>
       <c r="G156" s="4">
-        <v>3.9044931325402435E-4</v>
+        <v>7.9178492685125408E-4</v>
       </c>
       <c r="H156" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A157" s="12" t="s">
+      <c r="A157" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="B157" s="12" t="s">
-        <v>58</v>
+      <c r="B157" s="14" t="s">
+        <v>94</v>
       </c>
       <c r="C157" s="4">
-        <v>9.8668583192233197E-4</v>
+        <v>4.8053263858734981E-4</v>
       </c>
       <c r="D157" s="4">
-        <v>1.8941931711595385E-3</v>
+        <v>5.9632363583731363E-4</v>
       </c>
       <c r="E157" s="4">
-        <v>6.5888687220591283E-2</v>
+        <v>6.817194963091619E-2</v>
       </c>
       <c r="F157" s="10">
-        <v>2.9235135760661689E-4</v>
+        <v>5.2105948762483714E-4</v>
       </c>
       <c r="G157" s="4">
-        <v>7.9178492685125408E-4</v>
+        <v>1.308438268924591E-3</v>
       </c>
       <c r="H157" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.15">
@@ -5143,22 +5139,22 @@
         <v>94</v>
       </c>
       <c r="C158" s="4">
-        <v>4.8053263858734981E-4</v>
+        <v>1.4944429081623647E-3</v>
       </c>
       <c r="D158" s="4">
-        <v>5.9632363583731363E-4</v>
+        <v>2.0239699228655648E-3</v>
       </c>
       <c r="E158" s="4">
-        <v>6.817194963091619E-2</v>
+        <v>9.2820202043974273E-2</v>
       </c>
       <c r="F158" s="10">
-        <v>5.2105948762483714E-4</v>
+        <v>5.8836334967022236E-6</v>
       </c>
       <c r="G158" s="4">
-        <v>1.308438268924591E-3</v>
+        <v>1.4709083741755559E-3</v>
       </c>
       <c r="H158" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.15">
@@ -5169,22 +5165,22 @@
         <v>94</v>
       </c>
       <c r="C159" s="4">
-        <v>1.4944429081623647E-3</v>
+        <v>8.6537737978779439E-4</v>
       </c>
       <c r="D159" s="4">
-        <v>2.0239699228655648E-3</v>
+        <v>1.6178794491684852E-3</v>
       </c>
       <c r="E159" s="4">
-        <v>9.2820202043974273E-2</v>
+        <v>4.2516366920009027E-2</v>
       </c>
       <c r="F159" s="10">
-        <v>5.8836334967022236E-6</v>
+        <v>1.8185466676700027E-4</v>
       </c>
       <c r="G159" s="4">
-        <v>1.4709083741755559E-3</v>
+        <v>3.4489678179948331E-4</v>
       </c>
       <c r="H159" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.15">
@@ -5195,100 +5191,100 @@
         <v>94</v>
       </c>
       <c r="C160" s="4">
-        <v>8.6537737978779439E-4</v>
+        <v>1.1342466883433811E-4</v>
       </c>
       <c r="D160" s="4">
-        <v>1.6178794491684852E-3</v>
+        <v>2.5778333825985934E-4</v>
       </c>
       <c r="E160" s="4">
-        <v>4.2516366920009027E-2</v>
+        <v>7.9538189742285409E-2</v>
       </c>
       <c r="F160" s="10">
-        <v>1.8185466676700027E-4</v>
+        <v>1.7185555883990625E-5</v>
       </c>
       <c r="G160" s="4">
-        <v>3.4489678179948331E-4</v>
+        <v>1.8319802572334006E-3</v>
       </c>
       <c r="H160" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A161" s="14" t="s">
+      <c r="A161" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="B161" s="14" t="s">
-        <v>94</v>
+      <c r="B161" s="13" t="s">
+        <v>116</v>
       </c>
       <c r="C161" s="4">
-        <v>1.1342466883433811E-4</v>
+        <v>2.5816193572741994E-4</v>
       </c>
       <c r="D161" s="4">
-        <v>2.5778333825985934E-4</v>
+        <v>5.2119485137422524E-4</v>
       </c>
       <c r="E161" s="4">
-        <v>7.9538189742285409E-2</v>
+        <v>4.1656620270582936E-2</v>
       </c>
       <c r="F161" s="10">
-        <v>1.7185555883990625E-5</v>
+        <v>9.7419598387705648E-5</v>
       </c>
       <c r="G161" s="4">
-        <v>1.8319802572334006E-3</v>
+        <v>5.3824328109207365E-4</v>
       </c>
       <c r="H161" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A162" s="13" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B162" s="13" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C162" s="4">
-        <v>2.5816193572741994E-4</v>
+        <v>4.9950503591895304E-5</v>
       </c>
       <c r="D162" s="4">
-        <v>5.2119485137422524E-4</v>
+        <v>1.1352387179976205E-4</v>
       </c>
       <c r="E162" s="4">
-        <v>4.1656620270582936E-2</v>
+        <v>3.6209574149252105E-2</v>
       </c>
       <c r="F162" s="10">
-        <v>9.7419598387705648E-5</v>
+        <v>2.2704774359952409E-5</v>
       </c>
       <c r="G162" s="4">
-        <v>5.3824328109207365E-4</v>
+        <v>4.2230880309511486E-4</v>
       </c>
       <c r="H162" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A163" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="B163" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="B163" s="13" t="s">
-        <v>119</v>
-      </c>
       <c r="C163" s="4">
-        <v>4.9950503591895304E-5</v>
+        <v>2.4507077832594036E-5</v>
       </c>
       <c r="D163" s="4">
-        <v>1.1352387179976205E-4</v>
+        <v>4.5243835998635146E-5</v>
       </c>
       <c r="E163" s="4">
-        <v>3.6209574149252105E-2</v>
+        <v>6.3497838664251155E-2</v>
       </c>
       <c r="F163" s="10">
-        <v>2.2704774359952409E-5</v>
+        <v>1.8851598332764644E-6</v>
       </c>
       <c r="G163" s="4">
-        <v>4.2230880309511486E-4</v>
+        <v>1.6400890549505239E-4</v>
       </c>
       <c r="H163" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.15">
@@ -5296,25 +5292,25 @@
         <v>120</v>
       </c>
       <c r="B164" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C164" s="4">
-        <v>2.4507077832594036E-5</v>
+        <v>8.0537120643057927E-5</v>
       </c>
       <c r="D164" s="4">
-        <v>4.5243835998635146E-5</v>
+        <v>2.0134280160764484E-4</v>
       </c>
       <c r="E164" s="4">
-        <v>6.3497838664251155E-2</v>
+        <v>2.5894233077524722E-2</v>
       </c>
       <c r="F164" s="10">
-        <v>1.8851598332764644E-6</v>
+        <v>2.6329443287153554E-5</v>
       </c>
       <c r="G164" s="4">
-        <v>1.6400890549505239E-4</v>
+        <v>2.9736783006667543E-4</v>
       </c>
       <c r="H164" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.15">
@@ -5322,25 +5318,25 @@
         <v>121</v>
       </c>
       <c r="B165" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C165" s="4">
-        <v>8.0537120643057927E-5</v>
+        <v>9.2849630970089157E-5</v>
       </c>
       <c r="D165" s="4">
-        <v>2.0134280160764484E-4</v>
+        <v>1.9327882365202233E-4</v>
       </c>
       <c r="E165" s="4">
-        <v>2.5894233077524722E-2</v>
+        <v>2.9408699441954768E-2</v>
       </c>
       <c r="F165" s="10">
-        <v>2.6329443287153554E-5</v>
+        <v>7.769050754640113E-5</v>
       </c>
       <c r="G165" s="4">
-        <v>2.9736783006667543E-4</v>
+        <v>3.088671397576435E-4</v>
       </c>
       <c r="H165" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.15">
@@ -5348,25 +5344,25 @@
         <v>122</v>
       </c>
       <c r="B166" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C166" s="4">
-        <v>9.2849630970089157E-5</v>
+        <v>2.7414477374620941E-5</v>
       </c>
       <c r="D166" s="4">
-        <v>1.9327882365202233E-4</v>
+        <v>7.8025820220074991E-5</v>
       </c>
       <c r="E166" s="4">
-        <v>2.9408699441954768E-2</v>
+        <v>8.371116106638099E-2</v>
       </c>
       <c r="F166" s="10">
-        <v>7.769050754640113E-5</v>
+        <v>6.3264178556817558E-6</v>
       </c>
       <c r="G166" s="4">
-        <v>3.088671397576435E-4</v>
+        <v>1.2231074520984727E-4</v>
       </c>
       <c r="H166" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.15">
@@ -5374,25 +5370,25 @@
         <v>123</v>
       </c>
       <c r="B167" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C167" s="4">
-        <v>2.7414477374620941E-5</v>
+        <v>2.7101054411690309E-5</v>
       </c>
       <c r="D167" s="4">
-        <v>7.8025820220074991E-5</v>
+        <v>8.1303163235070931E-5</v>
       </c>
       <c r="E167" s="4">
-        <v>8.371116106638099E-2</v>
+        <v>8.1250767863208326E-2</v>
       </c>
       <c r="F167" s="10">
-        <v>6.3264178556817558E-6</v>
+        <v>1.8067369607793541E-5</v>
       </c>
       <c r="G167" s="4">
-        <v>1.2231074520984727E-4</v>
+        <v>1.1563116548987865E-4</v>
       </c>
       <c r="H167" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.15">
@@ -5400,51 +5396,25 @@
         <v>124</v>
       </c>
       <c r="B168" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C168" s="4">
-        <v>2.7101054411690309E-5</v>
+        <v>3.9615302007016206E-4</v>
       </c>
       <c r="D168" s="4">
-        <v>8.1303163235070931E-5</v>
+        <v>6.8730162518196791E-4</v>
       </c>
       <c r="E168" s="4">
-        <v>8.1250767863208326E-2</v>
+        <v>3.604515189843209E-2</v>
       </c>
       <c r="F168" s="10">
-        <v>1.8067369607793541E-5</v>
+        <v>1.0500441495835621E-4</v>
       </c>
       <c r="G168" s="4">
-        <v>1.1563116548987865E-4</v>
+        <v>5.0115743502851821E-4</v>
       </c>
       <c r="H168" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A169" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="B169" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="C169" s="4">
-        <v>3.9615302007016206E-4</v>
-      </c>
-      <c r="D169" s="4">
-        <v>6.8730162518196791E-4</v>
-      </c>
-      <c r="E169" s="4">
-        <v>3.604515189843209E-2</v>
-      </c>
-      <c r="F169" s="10">
-        <v>1.0500441495835621E-4</v>
-      </c>
-      <c r="G169" s="4">
-        <v>5.0115743502851821E-4</v>
-      </c>
-      <c r="H169" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -5472,25 +5442,25 @@
         <v>62</v>
       </c>
       <c r="B1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1" t="s">
         <v>130</v>
       </c>
-      <c r="C1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>131</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>132</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>133</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>134</v>
-      </c>
-      <c r="H1" t="s">
-        <v>135</v>
       </c>
       <c r="I1" t="s">
         <v>56</v>
@@ -5504,7 +5474,7 @@
         <v>57</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D2">
         <v>2.0594965675057208E-2</v>
@@ -5522,7 +5492,7 @@
         <v>0.10526315789473684</v>
       </c>
       <c r="I2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
@@ -5533,7 +5503,7 @@
         <v>57</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D3">
         <v>1.204773487382183E-2</v>
@@ -5551,7 +5521,7 @@
         <v>3.686530860443904E-2</v>
       </c>
       <c r="I3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -5562,7 +5532,7 @@
         <v>57</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D4">
         <v>0.15217391304347827</v>
@@ -5580,7 +5550,7 @@
         <v>0.36956521739130432</v>
       </c>
       <c r="I4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
@@ -5591,7 +5561,7 @@
         <v>57</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D5">
         <v>4.1322314049586778E-2</v>
@@ -5609,7 +5579,7 @@
         <v>0.16666666666666666</v>
       </c>
       <c r="I5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
@@ -5620,7 +5590,7 @@
         <v>57</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D6">
         <v>2.5670443137817297E-2</v>
@@ -5638,7 +5608,7 @@
         <v>1.9073569482288829E-2</v>
       </c>
       <c r="I6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
@@ -5649,7 +5619,7 @@
         <v>57</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D7">
         <v>9.5238095238095233E-2</v>
@@ -5667,7 +5637,7 @@
         <v>0.38095238095238093</v>
       </c>
       <c r="I7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
@@ -5678,7 +5648,7 @@
         <v>58</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D8">
         <v>0.19626168224299065</v>
@@ -5696,7 +5666,7 @@
         <v>0.16822429906542055</v>
       </c>
       <c r="I8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
@@ -5707,7 +5677,7 @@
         <v>57</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D9">
         <v>0.20418848167539266</v>
@@ -5725,7 +5695,7 @@
         <v>0.2513089005235602</v>
       </c>
       <c r="I9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
@@ -5736,7 +5706,7 @@
         <v>57</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D10">
         <v>0.20930232558139536</v>
@@ -5754,7 +5724,7 @@
         <v>0.2441860465116279</v>
       </c>
       <c r="I10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
@@ -5765,7 +5735,7 @@
         <v>59</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D11">
         <v>5.1948051948051951E-2</v>
@@ -5783,7 +5753,7 @@
         <v>0.25974025974025972</v>
       </c>
       <c r="I11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
@@ -5794,7 +5764,7 @@
         <v>59</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D12">
         <v>3.9473684210526314E-2</v>
@@ -5812,7 +5782,7 @@
         <v>0.18421052631578946</v>
       </c>
       <c r="I12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
@@ -5823,7 +5793,7 @@
         <v>57</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D13">
         <v>6.4036135959345881E-5</v>
@@ -5841,7 +5811,7 @@
         <v>8.3951731447139437E-4</v>
       </c>
       <c r="I13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
@@ -5852,7 +5822,7 @@
         <v>57</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D14">
         <v>1.8817709799498741E-4</v>
@@ -5870,7 +5840,7 @@
         <v>2.0733530619233775E-3</v>
       </c>
       <c r="I14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
@@ -5881,7 +5851,7 @@
         <v>57</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D15">
         <v>3.1182027884404576E-4</v>
@@ -5899,7 +5869,7 @@
         <v>3.9301029828511204E-3</v>
       </c>
       <c r="I15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
@@ -5910,7 +5880,7 @@
         <v>57</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D16">
         <v>1.3348149190428181E-4</v>
@@ -5928,7 +5898,7 @@
         <v>8.6297981150943446E-4</v>
       </c>
       <c r="I16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
@@ -5939,7 +5909,7 @@
         <v>57</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D17">
         <v>8.6450563955048159E-4</v>
@@ -5957,7 +5927,7 @@
         <v>4.0792901259273091E-4</v>
       </c>
       <c r="I17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
@@ -5968,7 +5938,7 @@
         <v>57</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D18">
         <v>3.2422200613755819E-6</v>
@@ -5986,7 +5956,7 @@
         <v>7.1702943665036907E-4</v>
       </c>
       <c r="I18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
@@ -5997,7 +5967,7 @@
         <v>58</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D19">
         <v>2.2313954248815465E-5</v>
@@ -6015,18 +5985,18 @@
         <v>5.1294026905295931E-5</v>
       </c>
       <c r="I19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D20">
         <v>3.2443383429891571E-5</v>
@@ -6044,7 +6014,7 @@
         <v>6.2517520955597886E-4</v>
       </c>
       <c r="I20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.15">
@@ -6055,7 +6025,7 @@
         <v>57</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D21">
         <v>2.2334480793811105E-3</v>
@@ -6073,7 +6043,7 @@
         <v>2.9237476296327955E-3</v>
       </c>
       <c r="I21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
@@ -6084,7 +6054,7 @@
         <v>59</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D22">
         <v>9.2726109220476484E-4</v>
@@ -6102,7 +6072,7 @@
         <v>7.0908870285907351E-5</v>
       </c>
       <c r="I22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.15">
@@ -6113,7 +6083,7 @@
         <v>59</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D23">
         <v>5.0042770870161222E-5</v>
@@ -6131,7 +6101,7 @@
         <v>1.3560001631138496E-4</v>
       </c>
       <c r="I23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -6144,7 +6114,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
@@ -6161,16 +6131,16 @@
         <v>62</v>
       </c>
       <c r="B1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D1" t="s">
         <v>56</v>
       </c>
       <c r="E1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -6181,10 +6151,10 @@
         <v>57</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E2" s="24">
         <v>0.20366132723112129</v>
@@ -6198,10 +6168,10 @@
         <v>57</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E3" s="24">
         <v>0.40301003344481601</v>
@@ -6215,10 +6185,10 @@
         <v>57</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E4" s="24">
         <v>0.55434782608695654</v>
@@ -6232,10 +6202,10 @@
         <v>57</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E5" s="24">
         <v>0.3608815426997245</v>
@@ -6249,10 +6219,10 @@
         <v>57</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E6" s="24">
         <v>0.94263588125627418</v>
@@ -6266,10 +6236,10 @@
         <v>57</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E7" s="24">
         <v>0.5714285714285714</v>
@@ -6283,10 +6253,10 @@
         <v>58</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E8" s="24">
         <v>0.74345549738219896</v>
@@ -6300,10 +6270,10 @@
         <v>57</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E9" s="24">
         <v>0.81395348837209303</v>
@@ -6317,10 +6287,10 @@
         <v>57</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E10" s="24">
         <v>0.84112149532710279</v>
@@ -6334,10 +6304,10 @@
         <v>59</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E11" s="24">
         <v>0.48051948051948057</v>
@@ -6351,10 +6321,10 @@
         <v>59</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E12" s="24">
         <v>0.52631578947368429</v>
@@ -6368,10 +6338,10 @@
         <v>57</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E13">
         <v>3.3042530304934807E-2</v>
@@ -6385,10 +6355,10 @@
         <v>57</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E14">
         <v>5.016854482572991E-2</v>
@@ -6402,10 +6372,10 @@
         <v>57</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E15">
         <v>0.14724591679649052</v>
@@ -6419,10 +6389,10 @@
         <v>57</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E16">
         <v>2.3006444577579218E-2</v>
@@ -6436,10 +6406,10 @@
         <v>57</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E17">
         <v>6.3638333425119015E-2</v>
@@ -6453,10 +6423,10 @@
         <v>57</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E18">
         <v>0.10788462314072932</v>
@@ -6470,10 +6440,10 @@
         <v>58</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E19">
         <v>4.02055002914848E-2</v>
@@ -6487,10 +6457,10 @@
         <v>57</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E20">
         <v>9.9885267356407653E-2</v>
@@ -6504,10 +6474,10 @@
         <v>57</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E21">
         <v>0.10441870421354223</v>
@@ -6521,10 +6491,10 @@
         <v>59</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E22">
         <v>0.13472000010919993</v>
@@ -6538,10 +6508,10 @@
         <v>59</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E23">
         <v>0.1247702955415186</v>
